--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Análises/análise_regioes.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Análises/análise_regioes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/lapei/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Análises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79CE3F39-E6CD-495E-A67B-1426B40A9BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{79CE3F39-E6CD-495E-A67B-1426B40A9BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{603C4821-A685-4B05-9999-228FF0FB084B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4CC1E4A-8B7B-46BB-B52F-6DEEC6F49807}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Capital</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>Perfil Ocupacional</t>
+  </si>
+  <si>
+    <t>Empregadoras</t>
+  </si>
+  <si>
+    <t>Trabalhadoras por Conta Própria</t>
+  </si>
+  <si>
+    <t>Percentual</t>
+  </si>
+  <si>
+    <t>RIDE</t>
+  </si>
+  <si>
+    <t>Região Metropolitana</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -148,6 +163,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AAB43D-6F86-40CC-B38C-FAFE3AF38A56}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +492,7 @@
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -486,93 +502,128 @@
       <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9">
         <v>17846.188999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="5">
+        <f>C2/SUM($C$2:$C$9)</f>
+        <v>4.9438666537321166E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9">
         <v>3797.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D9" si="0">C3/SUM($C$2:$C$9)</f>
+        <v>1.0518916500073571E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9">
         <v>3370.0189999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3358445080592017E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9">
         <v>21843.407999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0512021034331391E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9">
         <v>97821.983999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27099278434152896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9">
         <v>54077.696000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14980952962285826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9">
         <v>45158.92</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12510215974209193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9">
         <v>117061.046</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.32429007771373564</v>
       </c>
     </row>
   </sheetData>
